--- a/raw_data/Educators/staffingretention_District/staffingretention_DIstrict_2021.xlsx
+++ b/raw_data/Educators/staffingretention_District/staffingretention_DIstrict_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherwenz/Code/MA_Statewide_Reports/raw_data/Educators/staffingretention_District/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6D830-E021-AB4B-B8BF-1B2A50BA8886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF383B-0AB4-7F46-9318-FF0827767196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35680" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staffing Retention" sheetId="1" r:id="rId1"/>
@@ -2563,6 +2563,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2570,9 +2573,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2892,7 +2892,7 @@
   <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K404"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2911,19 +2911,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4385,10 +4385,10 @@
       <c r="H43" s="2">
         <v>91.2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>4431</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="4">
         <v>3998</v>
       </c>
       <c r="K43" s="2">
@@ -4910,7 +4910,7 @@
       <c r="H58" s="2">
         <v>91.3</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="4">
         <v>1046</v>
       </c>
       <c r="J58" s="2">
@@ -9075,7 +9075,7 @@
       <c r="H177" s="2">
         <v>82.8</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="4">
         <v>1141</v>
       </c>
       <c r="J177" s="2">
@@ -9565,7 +9565,7 @@
       <c r="H191" s="2">
         <v>90</v>
       </c>
-      <c r="I191" s="7">
+      <c r="I191" s="4">
         <v>1093</v>
       </c>
       <c r="J191" s="2">
@@ -9740,10 +9740,10 @@
       <c r="H196" s="2">
         <v>92</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="4">
         <v>1186</v>
       </c>
-      <c r="J196" s="7">
+      <c r="J196" s="4">
         <v>1059</v>
       </c>
       <c r="K196" s="2">
@@ -11560,10 +11560,10 @@
       <c r="H248" s="2">
         <v>81.8</v>
       </c>
-      <c r="I248" s="7">
+      <c r="I248" s="4">
         <v>1158</v>
       </c>
-      <c r="J248" s="7">
+      <c r="J248" s="4">
         <v>1059</v>
       </c>
       <c r="K248" s="2">
@@ -14815,10 +14815,10 @@
       <c r="H341" s="2">
         <v>92.6</v>
       </c>
-      <c r="I341" s="7">
+      <c r="I341" s="4">
         <v>2085</v>
       </c>
-      <c r="J341" s="7">
+      <c r="J341" s="4">
         <v>1798</v>
       </c>
       <c r="K341" s="2">
@@ -16880,10 +16880,10 @@
       <c r="H400" s="2">
         <v>94.1</v>
       </c>
-      <c r="I400" s="7">
+      <c r="I400" s="4">
         <v>1962</v>
       </c>
-      <c r="J400" s="7">
+      <c r="J400" s="4">
         <v>1702</v>
       </c>
       <c r="K400" s="2">
@@ -16976,19 +16976,19 @@
       <c r="E403" s="2">
         <v>81.3</v>
       </c>
-      <c r="F403" s="7">
+      <c r="F403" s="4">
         <v>1889</v>
       </c>
-      <c r="G403" s="7">
+      <c r="G403" s="4">
         <v>1647</v>
       </c>
       <c r="H403" s="2">
         <v>87.2</v>
       </c>
-      <c r="I403" s="7">
+      <c r="I403" s="4">
         <v>77781</v>
       </c>
-      <c r="J403" s="7">
+      <c r="J403" s="4">
         <v>68779</v>
       </c>
       <c r="K403" s="2">
@@ -17011,19 +17011,19 @@
       <c r="E404" s="2">
         <v>85.3</v>
       </c>
-      <c r="F404" s="7">
+      <c r="F404" s="4">
         <v>1888</v>
       </c>
-      <c r="G404" s="7">
+      <c r="G404" s="4">
         <v>1676</v>
       </c>
       <c r="H404" s="2">
         <v>88.8</v>
       </c>
-      <c r="I404" s="7">
+      <c r="I404" s="4">
         <v>77659</v>
       </c>
-      <c r="J404" s="7">
+      <c r="J404" s="4">
         <v>70358</v>
       </c>
       <c r="K404" s="2">
